--- a/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,281 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009568</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商智多宝稳健一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>22.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009569</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商智多宝稳健一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>970073</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>970074</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1324,64 +1108,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -515,6 +532,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,7 +1593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002801-微光股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -532,6 +549,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1005,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1593,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
